--- a/customers.xlsx
+++ b/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E73579\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{87782536-DCE3-AF4E-85B9-0AE04EB8CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{9A86066C-E203-B34A-A581-51719E57435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7980" uniqueCount="5354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7979" uniqueCount="5352">
   <si>
     <t>CustomerName</t>
   </si>
@@ -16080,11 +16080,6 @@
   </si>
   <si>
     <t>28252998</t>
-  </si>
-  <si>
-    <t>Applied filters:
-Billing_Date 5/11/2025 - 8/10/2025
-E_IL_B2B_Status__c is S</t>
   </si>
   <si>
     <t>SalesManager</t>
@@ -16469,10 +16464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2662"/>
+  <dimension ref="A1:C2660"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2644" workbookViewId="0">
+      <selection activeCell="A2662" sqref="A2662:XFD2662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16482,10 +16477,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -45732,11 +45727,6 @@
       </c>
       <c r="C2660" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2662" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2662" t="s">
-        <v>5349</v>
       </c>
     </row>
   </sheetData>
